--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50461.81402182693</v>
+        <v>10041900.99034356</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50461.81402182693</v>
+        <v>10041900.99034356</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.773511938164859</v>
+        <v>286.4107162898915</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.773511938164859</v>
+        <v>286.4107162898915</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035613208.611706</v>
+        <v>42381954.46250518</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8570.780898833495</v>
+        <v>942016.8895250128</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16551.41541186979</v>
+        <v>1792070.614785048</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24532.04992490609</v>
+        <v>2642124.340045084</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32867.43935364451</v>
+        <v>3505914.339239283</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41133.93181268594</v>
+        <v>4355993.841463785</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49400.42427172737</v>
+        <v>5206073.343688285</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57666.9167307688</v>
+        <v>6056152.845912783</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65933.40918981023</v>
+        <v>6906232.348137282</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74199.90164885166</v>
+        <v>7756311.85036178</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82466.39410789184</v>
+        <v>8606391.352586279</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90732.88656693327</v>
+        <v>9456470.854810782</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98999.37902597469</v>
+        <v>10306550.35703529</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>107265.8714850161</v>
+        <v>11156629.8592598</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115532.3639440575</v>
+        <v>12006709.3614843</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>123798.856403099</v>
+        <v>12856788.86370881</v>
       </c>
     </row>
   </sheetData>
